--- a/Others/SlowQuery.xlsx
+++ b/Others/SlowQuery.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Các bước thực hiện theo dõi slow queries</t>
   </si>
@@ -32,7 +32,10 @@
     <t>Thiết lập ngưỡng thời gian để 1 luồng được cho là chậm, cần log thông qua tham số cho mongod</t>
   </si>
   <si>
-    <t>operationProfiling.slowOpThresholdMs</t>
+    <t>operationProfiling.slowOpThresholdMs  ===&gt;</t>
+  </si>
+  <si>
+    <t>Thay bằng tham số: slowms</t>
   </si>
   <si>
     <t>Cầu hình tham số này trong /etc/mongod.conf</t>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>'db.getProfilingStatus()</t>
+  </si>
+  <si>
+    <t>{ "was" : 0, "slowms" : 2 }</t>
   </si>
   <si>
     <t>Bước 4</t>
@@ -84,9 +90,10 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="7">
-    <font>
-      <name val="Arial"/>
+  <fonts count="9">
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -107,17 +114,34 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00DD4814"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="000000FF"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Cumberland AMT;Cumberland;Courier New;Liberation Mono;Nimbus Mono L;DejaVu Sans Mono;Courier;Lucida Sans Typewriter;Lucida Typewriter;Monaco;Monospaced"/>
+      <charset val="1"/>
       <family val="3"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Times New Roman"/>
+      <charset val="1"/>
       <family val="1"/>
       <sz val="10"/>
     </font>
@@ -164,13 +188,15 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -182,6 +208,66 @@
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00DD4814"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -193,21 +279,21 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D17" activeCellId="0" pane="topLeft" sqref="D17"/>
+      <selection activeCell="G23" activeCellId="0" pane="topLeft" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7019607843137"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.9176470588235"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -215,7 +301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
@@ -223,70 +309,78 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
-      <c r="B4" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="4">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="5">
       <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="8">
-      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="8">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="D9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="D10" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="12">
-      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="12">
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.65" outlineLevel="0" r="15">
       <c r="B15" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
